--- a/server/data/cpds.xlsx
+++ b/server/data/cpds.xlsx
@@ -1305,12 +1305,12 @@
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom ).1</t>
+          <t>characters(Tom).1</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -8667,7 +8667,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -9812,7 +9812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:CN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9823,17 +9823,462 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>is_cat</t>
+          <t>characters</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>is_cat(0)</t>
+          <t>characters(Agatsuma Zenitsu)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>is_cat(1)</t>
+          <t>characters(Akai Shuuichi)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Android 18)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Ban)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Beerus)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Big Mom)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Blue-Eyes White Dragon)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Boros)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Bulma)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Cell)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Champa)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Daki)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Dark Magician)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Dark Magician Girl)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Derieri)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Diane)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Doraemon)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Edogawa Conan)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Elizabeth Liones)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Eren Yeager)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Escanor)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Frieza)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Fubuki)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Fushiguro Megumi)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Galand)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Garou)</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Genos)</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Gojo Satoru)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Gowther)</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Haruno Sakura)</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Hashibira Inosuke)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Hattori Heiji)</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Hawk)</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Howl Jenkins Pendragon)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Hyuga Hinata)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Itadori Yuji)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Jerry)</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Kaiba Seto)</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Kaito Kid)</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Kamado Nezuko)</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Kamado Tanjiro)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Kanroji Mitsuri)</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Katsuya Jonouchi)</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>characters(King)</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Kirito)</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Kocho Shinobu)</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Koro Sensei)</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Kudo Sinichi)</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Levi Ackerman)</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Majin Buu)</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Marik Ishtar)</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Melascula)</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Meliodas)</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Merlin)</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Mickey)</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Monkey D.Luffy)</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Muto Yugi)</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Nami)</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Nobita)</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Obelisk)</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Oggy)</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Osiris)</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Pegasus)</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Piccolo)</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Pikachu)</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Pink Panther)</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Po)</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Ra)</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Ran Mori)</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Rimuru Tempest)</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Ryomen Sukuna)</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Saitama)</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Sanji)</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Shanks)</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Shenron)</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Simba)</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Son Goku)</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Tatsumaki)</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Tokitou Muichirou)</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Tom)</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Tomioka Giyuu)</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Totoro)</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Uchiha Sasuke)</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Uzumaki Naruto)</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Vados)</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Vegeta)</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Whis)</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Yugi)</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Zeldris)</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Zeno)</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>characters(Zoro)</t>
         </is>
       </c>
     </row>
@@ -9844,10 +10289,277 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.9739583333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9910071942446044</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.9866310160427808</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.9866310160427808</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.9866310160427808</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.9866310160427808</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.9866310160427808</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.9866310160427808</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.9910071942446044</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.9866310160427808</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.9866310160427808</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.9866310160427808</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.9739583333333334</v>
       </c>
     </row>
     <row r="3">
@@ -9857,10 +10569,277 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.0260416666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0089928057553956</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0133689839572192</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0133689839572192</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0133689839572192</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0133689839572192</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.0133689839572192</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0133689839572192</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.0089928057553956</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.0133689839572192</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.9739583333333334</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.0133689839572192</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.0260416666666666</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.0133689839572192</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.0260416666666666</v>
       </c>
     </row>
   </sheetData>
@@ -10285,7 +11264,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -11918,12 +12897,12 @@
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom ).1</t>
+          <t>characters(Tom).1</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
@@ -15210,7 +16189,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -16251,7 +17230,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -18325,7 +19304,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -19493,7 +20472,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -20534,7 +21513,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -21575,7 +22554,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -22969,7 +23948,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -24177,7 +25156,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -25498,7 +26477,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -26819,7 +27798,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -27860,7 +28839,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -29181,7 +30160,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -30222,7 +31201,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -31543,7 +32522,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -32584,7 +33563,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -33625,7 +34604,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -34946,7 +35925,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -36060,7 +37039,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -37454,7 +38433,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -38495,7 +39474,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -39816,7 +40795,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
@@ -41618,7 +42597,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -42157,7 +43136,7 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>characters(Tom )</t>
+          <t>characters(Tom)</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">

--- a/server/data/cpds.xlsx
+++ b/server/data/cpds.xlsx
@@ -14231,537 +14231,537 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="BI3" t="inlineStr">
+      <c r="BK3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr">
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="BK3" t="inlineStr">
+      <c r="BO3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BL3" t="inlineStr">
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BM3" t="inlineStr">
+      <c r="BR3" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="BN3" t="inlineStr">
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="BO3" t="inlineStr">
+      <c r="BW3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BP3" t="inlineStr">
+      <c r="BX3" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr">
+      <c r="BY3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BR3" t="inlineStr">
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="BS3" t="inlineStr">
+      <c r="CC3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BT3" t="inlineStr">
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="BU3" t="inlineStr">
+      <c r="CI3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BV3" t="inlineStr">
+      <c r="CJ3" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="BW3" t="inlineStr">
+      <c r="CK3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BX3" t="inlineStr">
+      <c r="CL3" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="BY3" t="inlineStr">
+      <c r="CM3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BZ3" t="inlineStr">
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>0.006775067750677507</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="CA3" t="inlineStr">
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="CU3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CB3" t="inlineStr">
+      <c r="CV3" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="CC3" t="inlineStr">
+      <c r="CW3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CD3" t="inlineStr">
+      <c r="CX3" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="CE3" t="inlineStr">
+      <c r="CY3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CF3" t="inlineStr">
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>0.9932249322493225</t>
+        </is>
+      </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="CG3" t="inlineStr">
+      <c r="DC3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CH3" t="inlineStr">
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>0.006775067750677507</t>
+        </is>
+      </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="CI3" t="inlineStr">
+      <c r="DO3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CJ3" t="inlineStr">
+      <c r="DP3" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="CK3" t="inlineStr">
+      <c r="DQ3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CL3" t="inlineStr">
+      <c r="DR3" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="CM3" t="inlineStr">
+      <c r="DS3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CN3" t="inlineStr">
+      <c r="DT3" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="CO3" t="inlineStr">
+      <c r="DU3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CP3" t="inlineStr">
-        <is>
-          <t>0.006775067750677507</t>
-        </is>
-      </c>
-      <c r="CQ3" t="inlineStr">
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="DW3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CR3" t="inlineStr">
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="DY3" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CS3" t="inlineStr">
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="EA3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="EC3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EF3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="EI3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EJ3" t="inlineStr">
+        <is>
+          <t>0.9954627949183303</t>
+        </is>
+      </c>
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="EM3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="EQ3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="ER3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="ES3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="ET3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="EU3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EV3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="EW3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EX3" t="inlineStr">
+        <is>
+          <t>0.9932249322493225</t>
+        </is>
+      </c>
+      <c r="EY3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EZ3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="FA3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="FB3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="FC3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="FD3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="FE3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="FF3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="FG3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="FH3" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="FI3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="FJ3" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="CT3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="CU3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="CV3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="CW3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="CX3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="CY3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="CZ3" t="inlineStr">
-        <is>
-          <t>0.9932249322493225</t>
-        </is>
-      </c>
-      <c r="DA3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DB3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="DC3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DD3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="DE3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DF3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="DG3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DH3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="DI3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DJ3" t="inlineStr">
-        <is>
-          <t>0.006775067750677507</t>
-        </is>
-      </c>
-      <c r="DK3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DL3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="DM3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DN3" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="DO3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DP3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="DQ3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DR3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="DS3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DT3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="DU3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DV3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="DW3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DX3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="DY3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DZ3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="EA3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EB3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="EC3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="ED3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="EE3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EF3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="EG3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EH3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="EI3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EJ3" t="inlineStr">
-        <is>
-          <t>0.9954627949183303</t>
-        </is>
-      </c>
-      <c r="EK3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EL3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="EM3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EN3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="EO3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EP3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="EQ3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="ER3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="ES3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="ET3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="EU3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EV3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="EW3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EX3" t="inlineStr">
-        <is>
-          <t>0.9932249322493225</t>
-        </is>
-      </c>
-      <c r="EY3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EZ3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="FA3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="FB3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="FC3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="FD3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="FE3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="FF3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="FG3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="FH3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="FI3" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="FJ3" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
         </is>
       </c>
       <c r="FK3" t="inlineStr">
@@ -15148,537 +15148,537 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BK4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="BK4" t="inlineStr">
+      <c r="BO4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BL4" t="inlineStr">
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr">
+      <c r="BR4" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="BN4" t="inlineStr">
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="BO4" t="inlineStr">
+      <c r="BW4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BP4" t="inlineStr">
+      <c r="BX4" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr">
+      <c r="BY4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BR4" t="inlineStr">
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>0.9866310160427808</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
+      <c r="CC4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BT4" t="inlineStr">
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="BU4" t="inlineStr">
+      <c r="CI4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BV4" t="inlineStr">
+      <c r="CJ4" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="BW4" t="inlineStr">
+      <c r="CK4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BX4" t="inlineStr">
+      <c r="CL4" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="BY4" t="inlineStr">
+      <c r="CM4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BZ4" t="inlineStr">
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t>0.9932249322493225</t>
+        </is>
+      </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="CA4" t="inlineStr">
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="CU4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CB4" t="inlineStr">
+      <c r="CV4" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="CC4" t="inlineStr">
+      <c r="CW4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CD4" t="inlineStr">
+      <c r="CX4" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="CE4" t="inlineStr">
+      <c r="CY4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CF4" t="inlineStr">
+      <c r="CZ4" t="inlineStr">
+        <is>
+          <t>0.006775067750677507</t>
+        </is>
+      </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DB4" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="CG4" t="inlineStr">
+      <c r="DC4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CH4" t="inlineStr">
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>0.9932249322493225</t>
+        </is>
+      </c>
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="DM4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="DN4" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
         </is>
       </c>
-      <c r="CI4" t="inlineStr">
+      <c r="DO4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CJ4" t="inlineStr">
+      <c r="DP4" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="CK4" t="inlineStr">
+      <c r="DQ4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CL4" t="inlineStr">
+      <c r="DR4" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="CM4" t="inlineStr">
+      <c r="DS4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CN4" t="inlineStr">
+      <c r="DT4" t="inlineStr">
         <is>
           <t>0.013368983957219253</t>
         </is>
       </c>
-      <c r="CO4" t="inlineStr">
+      <c r="DU4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CP4" t="inlineStr">
-        <is>
-          <t>0.9932249322493225</t>
-        </is>
-      </c>
-      <c r="CQ4" t="inlineStr">
+      <c r="DV4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="DW4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CR4" t="inlineStr">
+      <c r="DX4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="DY4" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="CS4" t="inlineStr">
+      <c r="DZ4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="EA4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EB4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="EC4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="ED4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="EE4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EF4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="EG4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EH4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="EI4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EJ4" t="inlineStr">
+        <is>
+          <t>0.004537205081669692</t>
+        </is>
+      </c>
+      <c r="EK4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EL4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="EM4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EN4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="EO4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EP4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="EQ4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="ER4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="ES4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="ET4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="EU4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EV4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="EW4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EX4" t="inlineStr">
+        <is>
+          <t>0.006775067750677507</t>
+        </is>
+      </c>
+      <c r="EY4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="EZ4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="FA4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="FB4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="FC4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="FD4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="FE4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="FF4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="FG4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="FH4" t="inlineStr">
+        <is>
+          <t>0.013368983957219253</t>
+        </is>
+      </c>
+      <c r="FI4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="FJ4" t="inlineStr">
         <is>
           <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="CT4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="CU4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="CV4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="CW4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="CX4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="CY4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="CZ4" t="inlineStr">
-        <is>
-          <t>0.006775067750677507</t>
-        </is>
-      </c>
-      <c r="DA4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DB4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="DC4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DD4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="DE4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DF4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="DG4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DH4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="DI4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DJ4" t="inlineStr">
-        <is>
-          <t>0.9932249322493225</t>
-        </is>
-      </c>
-      <c r="DK4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DL4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="DM4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DN4" t="inlineStr">
-        <is>
-          <t>0.9866310160427808</t>
-        </is>
-      </c>
-      <c r="DO4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DP4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="DQ4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DR4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="DS4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DT4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="DU4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DV4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="DW4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DX4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="DY4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="DZ4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="EA4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EB4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="EC4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="ED4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="EE4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EF4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="EG4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EH4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="EI4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EJ4" t="inlineStr">
-        <is>
-          <t>0.004537205081669692</t>
-        </is>
-      </c>
-      <c r="EK4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EL4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="EM4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EN4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="EO4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EP4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="EQ4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="ER4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="ES4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="ET4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="EU4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EV4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="EW4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EX4" t="inlineStr">
-        <is>
-          <t>0.006775067750677507</t>
-        </is>
-      </c>
-      <c r="EY4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="EZ4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="FA4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="FB4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="FC4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="FD4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="FE4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="FF4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="FG4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="FH4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
-        </is>
-      </c>
-      <c r="FI4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="FJ4" t="inlineStr">
-        <is>
-          <t>0.013368983957219253</t>
         </is>
       </c>
       <c r="FK4" t="inlineStr">
@@ -36598,7 +36598,7 @@
         <v>0.7727272727272727</v>
       </c>
       <c r="D2" t="n">
-        <v>0.954724409448819</v>
+        <v>0.9429133858267718</v>
       </c>
     </row>
     <row r="3">
@@ -36614,7 +36614,7 @@
         <v>0.2272727272727272</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0452755905511811</v>
+        <v>0.0570866141732283</v>
       </c>
     </row>
   </sheetData>
